--- a/テスト.xlsx
+++ b/テスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\前田景志\Documents\dbSheet\992_Newcom_V11\test\51_バージョン管理用prj_前田\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60712D0-DC8E-4E61-86FB-A9B16183A291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2922DF-076F-452B-9B2E-51689C2D5303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,11 +25,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>バージョン管理</t>
     <rPh sb="5" eb="7">
       <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２回目</t>
+    <rPh sb="1" eb="3">
+      <t>カイメ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -356,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -369,6 +376,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
